--- a/マニュアル/会社評価システムマニュアル.xlsx
+++ b/マニュアル/会社評価システムマニュアル.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\マニュアル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\company_evaluation\マニュアル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5CF656-945B-495E-B7C8-12607B3FF94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02605492-E326-4E2E-BC1E-BC5387D34BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="996" firstSheet="11" activeTab="14" xr2:uid="{678DCB2D-7430-41AD-A8D2-C35F7A52921E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="996" firstSheet="12" activeTab="14" xr2:uid="{678DCB2D-7430-41AD-A8D2-C35F7A52921E}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="16" r:id="rId1"/>
@@ -1284,74 +1284,11 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1369,6 +1306,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1426,6 +1366,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8012,21 +8012,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>260498</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>222249</xdr:rowOff>
+      <xdr:colOff>249301</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19">
+        <xdr:cNvPr id="23" name="図 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5420944D-FBFB-4640-D44E-3E4DB8CCB074}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DBC9B6-8675-192D-7F15-1C778A5C9DDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8034,7 +8034,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -8042,13 +8042,14 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect t="10805" b="6635"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="301624" y="984249"/>
-          <a:ext cx="11833374" cy="5667375"/>
+          <a:off x="307974" y="12185650"/>
+          <a:ext cx="12095227" cy="5556250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8074,22 +8075,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>258536</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>204107</xdr:rowOff>
+      <xdr:colOff>260498</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>222249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20">
+        <xdr:cNvPr id="20" name="図 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CDE69D4-28E9-B8E2-9AC3-7F1D44628A9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5420944D-FBFB-4640-D44E-3E4DB8CCB074}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8105,13 +8106,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect t="9965" b="6273"/>
+        <a:srcRect t="10805" b="6635"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="312964" y="11538858"/>
-          <a:ext cx="12518572" cy="5810249"/>
+          <a:off x="301624" y="984249"/>
+          <a:ext cx="11833374" cy="5667375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9464,16 +9465,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9488,8 +9489,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="933450" y="16506825"/>
-          <a:ext cx="1733549" cy="431800"/>
+          <a:off x="1162050" y="17272000"/>
+          <a:ext cx="1828800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9530,10 +9531,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>6349</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>92074</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="492443" cy="607346"/>
     <xdr:sp macro="" textlink="">
@@ -9549,7 +9550,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="546099" y="16024225"/>
+          <a:off x="920749" y="16817975"/>
           <a:ext cx="492443" cy="607346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9590,25 +9591,87 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>244473</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="607346"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DCF5E1-5141-4F57-A02A-D87E10152B2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3006723" y="16817975"/>
+          <a:ext cx="492443" cy="607346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>60324</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>107948</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2439992-7F95-4846-9900-06DCC0DDDD6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A008D1-CCE0-4384-80F0-3961D9FD3BB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9616,8 +9679,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2666999" y="16506824"/>
-          <a:ext cx="1666875" cy="415925"/>
+          <a:off x="5356223" y="17233900"/>
+          <a:ext cx="3625851" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9658,18 +9721,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>215898</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>206373</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="492443" cy="607346"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DCF5E1-5141-4F57-A02A-D87E10152B2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{741732E0-392C-43BB-9CA1-073EE0430D15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9677,7 +9740,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2644773" y="15976600"/>
+          <a:off x="7664448" y="16776700"/>
           <a:ext cx="492443" cy="607346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9711,7 +9774,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>②</a:t>
+            <a:t>③</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9720,144 +9783,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>193674</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A008D1-CCE0-4384-80F0-3961D9FD3BB2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5861049" y="16459200"/>
-          <a:ext cx="3267076" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>34923</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="492443" cy="607346"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{741732E0-392C-43BB-9CA1-073EE0430D15}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5702298" y="15992475"/>
-          <a:ext cx="492443" cy="607346"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>③</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>79375</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9872,8 +9807,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9163050" y="16490950"/>
-          <a:ext cx="1711325" cy="463550"/>
+          <a:off x="9029700" y="17246600"/>
+          <a:ext cx="1857375" cy="463550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9917,7 +9852,7 @@
       <xdr:col>38</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>212725</xdr:rowOff>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="492443" cy="607346"/>
     <xdr:sp macro="" textlink="">
@@ -9933,7 +9868,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10398124" y="15944850"/>
+          <a:off x="10639424" y="16776700"/>
           <a:ext cx="492443" cy="607346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9974,6 +9909,72 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB0414AA-ED7D-15CB-8D55-43746105AD88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3019425" y="17272000"/>
+          <a:ext cx="1828800" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9982,22 +9983,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>27213</xdr:colOff>
+      <xdr:colOff>31749</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>235403</xdr:rowOff>
+      <xdr:rowOff>238124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>204106</xdr:colOff>
+      <xdr:colOff>200087</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>241393</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24">
+        <xdr:cNvPr id="24" name="図 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC97A263-2E23-0C1D-D187-034158950BB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D1C47D8-0767-869C-2EBB-124F912D411E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10005,7 +10006,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -10013,13 +10014,14 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect t="9652" b="5961"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="312963" y="11991974"/>
-          <a:ext cx="12464143" cy="5884276"/>
+          <a:off x="305075" y="11775798"/>
+          <a:ext cx="11921360" cy="5574197"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11788,16 +11790,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>22678</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>44449</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>70303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>253999</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>181428</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>223629</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>229053</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11812,8 +11814,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1028700" y="17412607"/>
-          <a:ext cx="1797049" cy="403678"/>
+          <a:off x="1137753" y="16892281"/>
+          <a:ext cx="1819137" cy="398946"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11854,10 +11856,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>136524</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133762</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>146049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="492443" cy="607346"/>
     <xdr:sp macro="" textlink="">
@@ -11873,7 +11875,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2565399" y="16544925"/>
+          <a:off x="2867023" y="16487636"/>
           <a:ext cx="492443" cy="607346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11916,16 +11918,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>136524</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>22679</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>191745</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>73263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>165554</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>124239</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>216138</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11940,8 +11942,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3565524" y="17412608"/>
-          <a:ext cx="3879851" cy="387803"/>
+          <a:off x="3729602" y="17218263"/>
+          <a:ext cx="4014637" cy="387804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11982,10 +11984,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>57148</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>17806</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>138596</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="492443" cy="607346"/>
     <xdr:sp macro="" textlink="">
@@ -12001,7 +12003,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6804023" y="16487775"/>
+          <a:off x="7670936" y="16480183"/>
           <a:ext cx="492443" cy="607346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12044,16 +12046,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>217261</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>28122</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>173084</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>62141</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>83911</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>66262</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>231323</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12068,8 +12070,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9647011" y="17418051"/>
-          <a:ext cx="1866900" cy="407307"/>
+          <a:off x="8881655" y="17207141"/>
+          <a:ext cx="1798178" cy="414111"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12110,10 +12112,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>16564</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>188705</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="492443" cy="607346"/>
     <xdr:sp macro="" textlink="">
@@ -12129,7 +12131,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10842624" y="16554450"/>
+          <a:off x="10676281" y="16530292"/>
           <a:ext cx="492443" cy="607346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30393,8 +30395,8 @@
   </sheetPr>
   <dimension ref="A1:AS51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="BA26" sqref="BA26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:AS50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -30738,7 +30740,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.62992125984251968" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -30753,8 +30755,8 @@
   </sheetPr>
   <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:AS3"/>
+    <sheetView showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A46" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AG74" sqref="AG74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -31113,7 +31115,7 @@
   </sheetPr>
   <dimension ref="A1:AS74"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A60" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:AS3"/>
     </sheetView>
   </sheetViews>
@@ -31488,14 +31490,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="37"/>
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
@@ -31507,12 +31509,12 @@
       <c r="P2" s="37"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="37"/>
       <c r="I3" s="37"/>
       <c r="J3" s="37"/>
@@ -31524,12 +31526,12 @@
       <c r="P3" s="37"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
@@ -31542,12 +31544,12 @@
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="36"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
@@ -31576,615 +31578,623 @@
       <c r="P6" s="35"/>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
     </row>
     <row r="17" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
     </row>
     <row r="18" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
     </row>
     <row r="19" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
     </row>
     <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
     </row>
     <row r="21" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
     </row>
     <row r="22" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
     </row>
     <row r="23" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
     </row>
     <row r="24" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
     </row>
     <row r="25" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
     </row>
     <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
     </row>
     <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
     </row>
     <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B36:Q37"/>
+    <mergeCell ref="B38:Q39"/>
+    <mergeCell ref="B24:Q25"/>
+    <mergeCell ref="B26:Q27"/>
+    <mergeCell ref="B28:Q29"/>
+    <mergeCell ref="B30:Q31"/>
+    <mergeCell ref="B32:Q33"/>
+    <mergeCell ref="B34:Q35"/>
     <mergeCell ref="B2:G5"/>
     <mergeCell ref="B18:Q19"/>
     <mergeCell ref="B20:Q21"/>
@@ -32194,14 +32204,6 @@
     <mergeCell ref="B12:Q13"/>
     <mergeCell ref="B14:Q15"/>
     <mergeCell ref="B16:Q17"/>
-    <mergeCell ref="B36:Q37"/>
-    <mergeCell ref="B38:Q39"/>
-    <mergeCell ref="B24:Q25"/>
-    <mergeCell ref="B26:Q27"/>
-    <mergeCell ref="B28:Q29"/>
-    <mergeCell ref="B30:Q31"/>
-    <mergeCell ref="B32:Q33"/>
-    <mergeCell ref="B34:Q35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.62992125984251968" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -32233,150 +32235,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="89"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="69"/>
     </row>
     <row r="2" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="92"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="72"/>
     </row>
     <row r="3" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="90"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="92"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="72"/>
     </row>
     <row r="4" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="95"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="75"/>
     </row>
     <row r="6" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="62" t="s">
+      <c r="K6" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="78"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="58"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="71" t="s">
+      <c r="T6" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="73"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="52"/>
     </row>
     <row r="7" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="74"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="81"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="61"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="7"/>
       <c r="S7" s="8"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="75"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="76"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="55"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
@@ -32426,22 +32428,22 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="11"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="62" t="s">
+      <c r="T9" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="83"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="63"/>
       <c r="Y9" s="2"/>
       <c r="AB9" s="5"/>
-      <c r="AC9" s="62" t="s">
+      <c r="AC9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="63"/>
-      <c r="AE9" s="63"/>
-      <c r="AF9" s="63"/>
-      <c r="AG9" s="64"/>
+      <c r="AD9" s="76"/>
+      <c r="AE9" s="76"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="77"/>
     </row>
     <row r="10" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D10" s="10"/>
@@ -32460,20 +32462,20 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="13"/>
       <c r="S10" s="8"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="86"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="66"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="13"/>
       <c r="AB10" s="8"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="67"/>
+      <c r="AC10" s="78"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="80"/>
     </row>
     <row r="11" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D11" s="10"/>
@@ -32506,39 +32508,39 @@
       <c r="O12" s="10"/>
       <c r="Q12" s="12"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="71" t="s">
+      <c r="T12" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="73"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="52"/>
       <c r="AA12" s="29"/>
       <c r="AB12" s="5"/>
-      <c r="AC12" s="62" t="s">
+      <c r="AC12" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AD12" s="63"/>
-      <c r="AE12" s="63"/>
-      <c r="AF12" s="63"/>
-      <c r="AG12" s="64"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="77"/>
     </row>
     <row r="13" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q13" s="12"/>
       <c r="R13" s="13"/>
       <c r="S13" s="8"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="75"/>
-      <c r="W13" s="75"/>
-      <c r="X13" s="76"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="55"/>
       <c r="AA13" s="14"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="67"/>
+      <c r="AC13" s="78"/>
+      <c r="AD13" s="79"/>
+      <c r="AE13" s="79"/>
+      <c r="AF13" s="79"/>
+      <c r="AG13" s="80"/>
     </row>
     <row r="14" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E14" s="15"/>
@@ -32621,22 +32623,22 @@
       <c r="K18" s="15"/>
       <c r="Q18" s="12"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="62" t="s">
+      <c r="T18" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="64"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="77"/>
       <c r="Y18" s="2"/>
       <c r="AB18" s="5"/>
-      <c r="AC18" s="62" t="s">
+      <c r="AC18" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
-      <c r="AG18" s="64"/>
+      <c r="AD18" s="76"/>
+      <c r="AE18" s="76"/>
+      <c r="AF18" s="76"/>
+      <c r="AG18" s="77"/>
       <c r="AM18" s="12"/>
     </row>
     <row r="19" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -32644,20 +32646,20 @@
       <c r="Q19" s="12"/>
       <c r="R19" s="14"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="67"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="80"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="67"/>
+      <c r="AC19" s="78"/>
+      <c r="AD19" s="79"/>
+      <c r="AE19" s="79"/>
+      <c r="AF19" s="79"/>
+      <c r="AG19" s="80"/>
       <c r="AM19" s="12"/>
     </row>
     <row r="20" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -32694,38 +32696,38 @@
       <c r="S24" s="17"/>
       <c r="U24" s="12"/>
       <c r="AB24" s="5"/>
-      <c r="AC24" s="62" t="s">
+      <c r="AC24" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AD24" s="63"/>
-      <c r="AE24" s="63"/>
-      <c r="AF24" s="63"/>
-      <c r="AG24" s="64"/>
+      <c r="AD24" s="76"/>
+      <c r="AE24" s="76"/>
+      <c r="AF24" s="76"/>
+      <c r="AG24" s="77"/>
       <c r="AH24" s="2"/>
       <c r="AK24" s="5"/>
-      <c r="AL24" s="62" t="s">
+      <c r="AL24" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="AM24" s="63"/>
-      <c r="AN24" s="63"/>
-      <c r="AO24" s="63"/>
-      <c r="AP24" s="64"/>
+      <c r="AM24" s="76"/>
+      <c r="AN24" s="76"/>
+      <c r="AO24" s="76"/>
+      <c r="AP24" s="77"/>
       <c r="AT24" s="5"/>
-      <c r="AU24" s="56" t="s">
+      <c r="AU24" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="AV24" s="57"/>
-      <c r="AW24" s="57"/>
-      <c r="AX24" s="57"/>
-      <c r="AY24" s="58"/>
+      <c r="AV24" s="85"/>
+      <c r="AW24" s="85"/>
+      <c r="AX24" s="85"/>
+      <c r="AY24" s="86"/>
       <c r="BC24" s="5"/>
-      <c r="BD24" s="50" t="s">
+      <c r="BD24" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BE24" s="51"/>
-      <c r="BF24" s="51"/>
-      <c r="BG24" s="51"/>
-      <c r="BH24" s="52"/>
+      <c r="BE24" s="91"/>
+      <c r="BF24" s="91"/>
+      <c r="BG24" s="91"/>
+      <c r="BH24" s="92"/>
     </row>
     <row r="25" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D25" s="4"/>
@@ -32740,38 +32742,38 @@
       <c r="Z25" s="14"/>
       <c r="AA25" s="14"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="66"/>
-      <c r="AE25" s="66"/>
-      <c r="AF25" s="66"/>
-      <c r="AG25" s="67"/>
+      <c r="AC25" s="78"/>
+      <c r="AD25" s="79"/>
+      <c r="AE25" s="79"/>
+      <c r="AF25" s="79"/>
+      <c r="AG25" s="80"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="14"/>
       <c r="AJ25" s="14"/>
       <c r="AK25" s="8"/>
-      <c r="AL25" s="65"/>
-      <c r="AM25" s="66"/>
-      <c r="AN25" s="66"/>
-      <c r="AO25" s="66"/>
-      <c r="AP25" s="67"/>
+      <c r="AL25" s="78"/>
+      <c r="AM25" s="79"/>
+      <c r="AN25" s="79"/>
+      <c r="AO25" s="79"/>
+      <c r="AP25" s="80"/>
       <c r="AQ25" s="13"/>
       <c r="AR25" s="14"/>
       <c r="AS25" s="14"/>
       <c r="AT25" s="8"/>
-      <c r="AU25" s="59"/>
-      <c r="AV25" s="60"/>
-      <c r="AW25" s="60"/>
-      <c r="AX25" s="60"/>
-      <c r="AY25" s="61"/>
+      <c r="AU25" s="87"/>
+      <c r="AV25" s="88"/>
+      <c r="AW25" s="88"/>
+      <c r="AX25" s="88"/>
+      <c r="AY25" s="89"/>
       <c r="AZ25" s="14"/>
       <c r="BA25" s="14"/>
       <c r="BB25" s="14"/>
       <c r="BC25" s="8"/>
-      <c r="BD25" s="53"/>
-      <c r="BE25" s="54"/>
-      <c r="BF25" s="54"/>
-      <c r="BG25" s="54"/>
-      <c r="BH25" s="55"/>
+      <c r="BD25" s="93"/>
+      <c r="BE25" s="94"/>
+      <c r="BF25" s="94"/>
+      <c r="BG25" s="94"/>
+      <c r="BH25" s="95"/>
     </row>
     <row r="26" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D26" s="4"/>
@@ -32811,70 +32813,70 @@
     <row r="30" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q30" s="12"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="62" t="s">
+      <c r="T30" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="U30" s="63"/>
-      <c r="V30" s="63"/>
-      <c r="W30" s="63"/>
-      <c r="X30" s="64"/>
+      <c r="U30" s="76"/>
+      <c r="V30" s="76"/>
+      <c r="W30" s="76"/>
+      <c r="X30" s="77"/>
       <c r="AB30" s="5"/>
-      <c r="AC30" s="56" t="s">
+      <c r="AC30" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="AD30" s="57"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="57"/>
-      <c r="AG30" s="58"/>
+      <c r="AD30" s="85"/>
+      <c r="AE30" s="85"/>
+      <c r="AF30" s="85"/>
+      <c r="AG30" s="86"/>
       <c r="AK30" s="5"/>
-      <c r="AL30" s="50" t="s">
+      <c r="AL30" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AM30" s="51"/>
-      <c r="AN30" s="51"/>
-      <c r="AO30" s="51"/>
-      <c r="AP30" s="52"/>
+      <c r="AM30" s="91"/>
+      <c r="AN30" s="91"/>
+      <c r="AO30" s="91"/>
+      <c r="AP30" s="92"/>
     </row>
     <row r="31" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J31" s="25"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
       <c r="P31" s="26"/>
       <c r="R31" s="14"/>
       <c r="S31" s="8"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="67"/>
+      <c r="T31" s="78"/>
+      <c r="U31" s="79"/>
+      <c r="V31" s="79"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="80"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
       <c r="AB31" s="8"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="60"/>
-      <c r="AE31" s="60"/>
-      <c r="AF31" s="60"/>
-      <c r="AG31" s="61"/>
+      <c r="AC31" s="87"/>
+      <c r="AD31" s="88"/>
+      <c r="AE31" s="88"/>
+      <c r="AF31" s="88"/>
+      <c r="AG31" s="89"/>
       <c r="AH31" s="14"/>
       <c r="AI31" s="14"/>
       <c r="AJ31" s="14"/>
       <c r="AK31" s="8"/>
-      <c r="AL31" s="53"/>
-      <c r="AM31" s="54"/>
-      <c r="AN31" s="54"/>
-      <c r="AO31" s="54"/>
-      <c r="AP31" s="55"/>
+      <c r="AL31" s="93"/>
+      <c r="AM31" s="94"/>
+      <c r="AN31" s="94"/>
+      <c r="AO31" s="94"/>
+      <c r="AP31" s="95"/>
     </row>
     <row r="32" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
       <c r="AL32" s="1" t="s">
         <v>14</v>
       </c>
@@ -32884,39 +32886,39 @@
     <row r="35" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="36" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AB36" s="5"/>
-      <c r="AC36" s="62" t="s">
+      <c r="AC36" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AD36" s="63"/>
-      <c r="AE36" s="63"/>
-      <c r="AF36" s="63"/>
-      <c r="AG36" s="64"/>
+      <c r="AD36" s="76"/>
+      <c r="AE36" s="76"/>
+      <c r="AF36" s="76"/>
+      <c r="AG36" s="77"/>
     </row>
     <row r="37" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Z37" s="14"/>
       <c r="AA37" s="14"/>
       <c r="AB37" s="8"/>
-      <c r="AC37" s="65"/>
-      <c r="AD37" s="66"/>
-      <c r="AE37" s="66"/>
-      <c r="AF37" s="66"/>
-      <c r="AG37" s="67"/>
+      <c r="AC37" s="78"/>
+      <c r="AD37" s="79"/>
+      <c r="AE37" s="79"/>
+      <c r="AF37" s="79"/>
+      <c r="AG37" s="80"/>
     </row>
     <row r="38" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J38" s="27"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="70"/>
-      <c r="N38" s="70"/>
-      <c r="O38" s="70"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="83"/>
       <c r="P38" s="33"/>
     </row>
     <row r="39" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K39" s="70"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="70"/>
-      <c r="N39" s="70"/>
-      <c r="O39" s="70"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83"/>
+      <c r="N39" s="83"/>
+      <c r="O39" s="83"/>
     </row>
     <row r="40" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="41" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -32930,11 +32932,11 @@
     <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="K6:O7"/>
-    <mergeCell ref="T6:X7"/>
-    <mergeCell ref="T9:X10"/>
-    <mergeCell ref="A1:T4"/>
+    <mergeCell ref="BD24:BH25"/>
+    <mergeCell ref="AL30:AP31"/>
+    <mergeCell ref="AU24:AY25"/>
+    <mergeCell ref="T18:X19"/>
+    <mergeCell ref="AC18:AG19"/>
     <mergeCell ref="AC9:AG10"/>
     <mergeCell ref="K31:O32"/>
     <mergeCell ref="AC24:AG25"/>
@@ -32945,11 +32947,11 @@
     <mergeCell ref="T12:X13"/>
     <mergeCell ref="AC12:AG13"/>
     <mergeCell ref="AC36:AG37"/>
-    <mergeCell ref="BD24:BH25"/>
-    <mergeCell ref="AL30:AP31"/>
-    <mergeCell ref="AU24:AY25"/>
-    <mergeCell ref="T18:X19"/>
-    <mergeCell ref="AC18:AG19"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="K6:O7"/>
+    <mergeCell ref="T6:X7"/>
+    <mergeCell ref="T9:X10"/>
+    <mergeCell ref="A1:T4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.62992125984251968" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/マニュアル/会社評価システムマニュアル.xlsx
+++ b/マニュアル/会社評価システムマニュアル.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\company_evaluation\マニュアル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\マニュアル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02605492-E326-4E2E-BC1E-BC5387D34BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5CF656-945B-495E-B7C8-12607B3FF94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="996" firstSheet="12" activeTab="14" xr2:uid="{678DCB2D-7430-41AD-A8D2-C35F7A52921E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="996" firstSheet="11" activeTab="14" xr2:uid="{678DCB2D-7430-41AD-A8D2-C35F7A52921E}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="16" r:id="rId1"/>
@@ -1284,11 +1284,74 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1306,9 +1369,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1366,66 +1426,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8012,21 +8012,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>249301</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:colOff>260498</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>222249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22">
+        <xdr:cNvPr id="20" name="図 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DBC9B6-8675-192D-7F15-1C778A5C9DDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5420944D-FBFB-4640-D44E-3E4DB8CCB074}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8034,7 +8034,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -8042,14 +8042,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="10805" b="6635"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="307974" y="12185650"/>
-          <a:ext cx="12095227" cy="5556250"/>
+          <a:off x="301624" y="984249"/>
+          <a:ext cx="11833374" cy="5667375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8075,22 +8074,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>260498</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>222249</xdr:rowOff>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19">
+        <xdr:cNvPr id="21" name="図 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5420944D-FBFB-4640-D44E-3E4DB8CCB074}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CDE69D4-28E9-B8E2-9AC3-7F1D44628A9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8106,13 +8105,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect t="10805" b="6635"/>
+        <a:srcRect t="9965" b="6273"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="301624" y="984249"/>
-          <a:ext cx="11833374" cy="5667375"/>
+          <a:off x="312964" y="11538858"/>
+          <a:ext cx="12518572" cy="5810249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9465,16 +9464,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9489,8 +9488,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1162050" y="17272000"/>
-          <a:ext cx="1828800" cy="431800"/>
+          <a:off x="933450" y="16506825"/>
+          <a:ext cx="1733549" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9531,10 +9530,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>92074</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6349</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="492443" cy="607346"/>
     <xdr:sp macro="" textlink="">
@@ -9550,7 +9549,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="920749" y="16817975"/>
+          <a:off x="546099" y="16024225"/>
           <a:ext cx="492443" cy="607346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9591,87 +9590,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>244473</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="492443" cy="607346"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DCF5E1-5141-4F57-A02A-D87E10152B2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3006723" y="16817975"/>
-          <a:ext cx="492443" cy="607346"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>②</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>107948</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>60324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:rowOff>238124</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15">
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A008D1-CCE0-4384-80F0-3961D9FD3BB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2439992-7F95-4846-9900-06DCC0DDDD6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9679,8 +9616,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5356223" y="17233900"/>
-          <a:ext cx="3625851" cy="495300"/>
+          <a:off x="2666999" y="16506824"/>
+          <a:ext cx="1666875" cy="415925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9721,18 +9658,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>206373</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215898</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="492443" cy="607346"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{741732E0-392C-43BB-9CA1-073EE0430D15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DCF5E1-5141-4F57-A02A-D87E10152B2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9740,7 +9677,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7664448" y="16776700"/>
+          <a:off x="2644773" y="15976600"/>
           <a:ext cx="492443" cy="607346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9774,7 +9711,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>③</a:t>
+            <a:t>②</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9783,16 +9720,144 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>193674</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A008D1-CCE0-4384-80F0-3961D9FD3BB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5861049" y="16459200"/>
+          <a:ext cx="3267076" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>34923</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="607346"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{741732E0-392C-43BB-9CA1-073EE0430D15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5702298" y="15992475"/>
+          <a:ext cx="492443" cy="607346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9807,8 +9872,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9029700" y="17246600"/>
-          <a:ext cx="1857375" cy="463550"/>
+          <a:off x="9163050" y="16490950"/>
+          <a:ext cx="1711325" cy="463550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9852,7 +9917,7 @@
       <xdr:col>38</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:rowOff>212725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="492443" cy="607346"/>
     <xdr:sp macro="" textlink="">
@@ -9868,7 +9933,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10639424" y="16776700"/>
+          <a:off x="10398124" y="15944850"/>
           <a:ext cx="492443" cy="607346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9909,72 +9974,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB0414AA-ED7D-15CB-8D55-43746105AD88}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3019425" y="17272000"/>
-          <a:ext cx="1828800" cy="431800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9983,22 +9982,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
+      <xdr:colOff>27213</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:rowOff>235403</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>200087</xdr:colOff>
+      <xdr:colOff>204106</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>241393</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="図 23">
+        <xdr:cNvPr id="25" name="図 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D1C47D8-0767-869C-2EBB-124F912D411E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC97A263-2E23-0C1D-D187-034158950BB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10006,7 +10005,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -10014,14 +10013,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="9652" b="5961"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="305075" y="11775798"/>
-          <a:ext cx="11921360" cy="5574197"/>
+          <a:off x="312963" y="11991974"/>
+          <a:ext cx="12464143" cy="5884276"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11790,16 +11788,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>44449</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>70303</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>22678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>223629</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>229053</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>181428</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11814,8 +11812,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1137753" y="16892281"/>
-          <a:ext cx="1819137" cy="398946"/>
+          <a:off x="1028700" y="17412607"/>
+          <a:ext cx="1797049" cy="403678"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11856,10 +11854,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>133762</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>146049</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>136524</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="492443" cy="607346"/>
     <xdr:sp macro="" textlink="">
@@ -11875,7 +11873,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2867023" y="16487636"/>
+          <a:off x="2565399" y="16544925"/>
           <a:ext cx="492443" cy="607346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11918,16 +11916,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>191745</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>73263</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>136524</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>22679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>124239</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>216138</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>165554</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11942,8 +11940,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3729602" y="17218263"/>
-          <a:ext cx="4014637" cy="387804"/>
+          <a:off x="3565524" y="17412608"/>
+          <a:ext cx="3879851" cy="387803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11984,10 +11982,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>17806</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>138596</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>57148</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="492443" cy="607346"/>
     <xdr:sp macro="" textlink="">
@@ -12003,7 +12001,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7670936" y="16480183"/>
+          <a:off x="6804023" y="16487775"/>
           <a:ext cx="492443" cy="607346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12046,16 +12044,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>173084</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>62141</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>217261</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>28122</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>66262</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>231323</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>83911</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12070,8 +12068,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8881655" y="17207141"/>
-          <a:ext cx="1798178" cy="414111"/>
+          <a:off x="9647011" y="17418051"/>
+          <a:ext cx="1866900" cy="407307"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12112,10 +12110,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>16564</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>188705</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="492443" cy="607346"/>
     <xdr:sp macro="" textlink="">
@@ -12131,7 +12129,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10676281" y="16530292"/>
+          <a:off x="10842624" y="16554450"/>
           <a:ext cx="492443" cy="607346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30395,8 +30393,8 @@
   </sheetPr>
   <dimension ref="A1:AS51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:AS50"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="BA26" sqref="BA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -30740,7 +30738,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.62992125984251968" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -30755,8 +30753,8 @@
   </sheetPr>
   <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A46" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AG74" sqref="AG74"/>
+    <sheetView showWhiteSpace="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:AS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -31115,7 +31113,7 @@
   </sheetPr>
   <dimension ref="A1:AS74"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A60" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:AS3"/>
     </sheetView>
   </sheetViews>
@@ -31490,14 +31488,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="37"/>
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
@@ -31509,12 +31507,12 @@
       <c r="P2" s="37"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="37"/>
       <c r="I3" s="37"/>
       <c r="J3" s="37"/>
@@ -31526,12 +31524,12 @@
       <c r="P3" s="37"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
@@ -31544,12 +31542,12 @@
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="36"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
@@ -31578,623 +31576,615 @@
       <c r="P6" s="35"/>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
     </row>
     <row r="17" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
     </row>
     <row r="18" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
     </row>
     <row r="19" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
     </row>
     <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
     </row>
     <row r="21" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
     </row>
     <row r="22" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
     </row>
     <row r="23" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
     </row>
     <row r="24" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
     </row>
     <row r="25" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
     </row>
     <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
     </row>
     <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
     </row>
     <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B36:Q37"/>
-    <mergeCell ref="B38:Q39"/>
-    <mergeCell ref="B24:Q25"/>
-    <mergeCell ref="B26:Q27"/>
-    <mergeCell ref="B28:Q29"/>
-    <mergeCell ref="B30:Q31"/>
-    <mergeCell ref="B32:Q33"/>
-    <mergeCell ref="B34:Q35"/>
     <mergeCell ref="B2:G5"/>
     <mergeCell ref="B18:Q19"/>
     <mergeCell ref="B20:Q21"/>
@@ -32204,6 +32194,14 @@
     <mergeCell ref="B12:Q13"/>
     <mergeCell ref="B14:Q15"/>
     <mergeCell ref="B16:Q17"/>
+    <mergeCell ref="B36:Q37"/>
+    <mergeCell ref="B38:Q39"/>
+    <mergeCell ref="B24:Q25"/>
+    <mergeCell ref="B26:Q27"/>
+    <mergeCell ref="B28:Q29"/>
+    <mergeCell ref="B30:Q31"/>
+    <mergeCell ref="B32:Q33"/>
+    <mergeCell ref="B34:Q35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.62992125984251968" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -32235,150 +32233,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="69"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="89"/>
     </row>
     <row r="2" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="72"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="92"/>
     </row>
     <row r="3" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="72"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="92"/>
     </row>
     <row r="4" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="75"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="95"/>
     </row>
     <row r="6" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="56" t="s">
+      <c r="K6" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="58"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="78"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="50" t="s">
+      <c r="T6" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="52"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="73"/>
     </row>
     <row r="7" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="61"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="81"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="7"/>
       <c r="S7" s="8"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="55"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="76"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
@@ -32428,22 +32426,22 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="11"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="56" t="s">
+      <c r="T9" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="63"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="83"/>
       <c r="Y9" s="2"/>
       <c r="AB9" s="5"/>
-      <c r="AC9" s="56" t="s">
+      <c r="AC9" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="77"/>
+      <c r="AD9" s="63"/>
+      <c r="AE9" s="63"/>
+      <c r="AF9" s="63"/>
+      <c r="AG9" s="64"/>
     </row>
     <row r="10" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D10" s="10"/>
@@ -32462,20 +32460,20 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="13"/>
       <c r="S10" s="8"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="66"/>
+      <c r="T10" s="84"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="86"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="13"/>
       <c r="AB10" s="8"/>
-      <c r="AC10" s="78"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="80"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="66"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="67"/>
     </row>
     <row r="11" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D11" s="10"/>
@@ -32508,39 +32506,39 @@
       <c r="O12" s="10"/>
       <c r="Q12" s="12"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="50" t="s">
+      <c r="T12" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="52"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="73"/>
       <c r="AA12" s="29"/>
       <c r="AB12" s="5"/>
-      <c r="AC12" s="56" t="s">
+      <c r="AC12" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="77"/>
+      <c r="AD12" s="63"/>
+      <c r="AE12" s="63"/>
+      <c r="AF12" s="63"/>
+      <c r="AG12" s="64"/>
     </row>
     <row r="13" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q13" s="12"/>
       <c r="R13" s="13"/>
       <c r="S13" s="8"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="55"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="76"/>
       <c r="AA13" s="14"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="78"/>
-      <c r="AD13" s="79"/>
-      <c r="AE13" s="79"/>
-      <c r="AF13" s="79"/>
-      <c r="AG13" s="80"/>
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="67"/>
     </row>
     <row r="14" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E14" s="15"/>
@@ -32623,22 +32621,22 @@
       <c r="K18" s="15"/>
       <c r="Q18" s="12"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="56" t="s">
+      <c r="T18" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="U18" s="76"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="76"/>
-      <c r="X18" s="77"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="64"/>
       <c r="Y18" s="2"/>
       <c r="AB18" s="5"/>
-      <c r="AC18" s="56" t="s">
+      <c r="AC18" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="AD18" s="76"/>
-      <c r="AE18" s="76"/>
-      <c r="AF18" s="76"/>
-      <c r="AG18" s="77"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="64"/>
       <c r="AM18" s="12"/>
     </row>
     <row r="19" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -32646,20 +32644,20 @@
       <c r="Q19" s="12"/>
       <c r="R19" s="14"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="80"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="67"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="78"/>
-      <c r="AD19" s="79"/>
-      <c r="AE19" s="79"/>
-      <c r="AF19" s="79"/>
-      <c r="AG19" s="80"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="67"/>
       <c r="AM19" s="12"/>
     </row>
     <row r="20" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -32696,38 +32694,38 @@
       <c r="S24" s="17"/>
       <c r="U24" s="12"/>
       <c r="AB24" s="5"/>
-      <c r="AC24" s="56" t="s">
+      <c r="AC24" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="AD24" s="76"/>
-      <c r="AE24" s="76"/>
-      <c r="AF24" s="76"/>
-      <c r="AG24" s="77"/>
+      <c r="AD24" s="63"/>
+      <c r="AE24" s="63"/>
+      <c r="AF24" s="63"/>
+      <c r="AG24" s="64"/>
       <c r="AH24" s="2"/>
       <c r="AK24" s="5"/>
-      <c r="AL24" s="56" t="s">
+      <c r="AL24" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="AM24" s="76"/>
-      <c r="AN24" s="76"/>
-      <c r="AO24" s="76"/>
-      <c r="AP24" s="77"/>
+      <c r="AM24" s="63"/>
+      <c r="AN24" s="63"/>
+      <c r="AO24" s="63"/>
+      <c r="AP24" s="64"/>
       <c r="AT24" s="5"/>
-      <c r="AU24" s="84" t="s">
+      <c r="AU24" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV24" s="85"/>
-      <c r="AW24" s="85"/>
-      <c r="AX24" s="85"/>
-      <c r="AY24" s="86"/>
+      <c r="AV24" s="57"/>
+      <c r="AW24" s="57"/>
+      <c r="AX24" s="57"/>
+      <c r="AY24" s="58"/>
       <c r="BC24" s="5"/>
-      <c r="BD24" s="90" t="s">
+      <c r="BD24" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="BE24" s="91"/>
-      <c r="BF24" s="91"/>
-      <c r="BG24" s="91"/>
-      <c r="BH24" s="92"/>
+      <c r="BE24" s="51"/>
+      <c r="BF24" s="51"/>
+      <c r="BG24" s="51"/>
+      <c r="BH24" s="52"/>
     </row>
     <row r="25" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D25" s="4"/>
@@ -32742,38 +32740,38 @@
       <c r="Z25" s="14"/>
       <c r="AA25" s="14"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="78"/>
-      <c r="AD25" s="79"/>
-      <c r="AE25" s="79"/>
-      <c r="AF25" s="79"/>
-      <c r="AG25" s="80"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="66"/>
+      <c r="AE25" s="66"/>
+      <c r="AF25" s="66"/>
+      <c r="AG25" s="67"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="14"/>
       <c r="AJ25" s="14"/>
       <c r="AK25" s="8"/>
-      <c r="AL25" s="78"/>
-      <c r="AM25" s="79"/>
-      <c r="AN25" s="79"/>
-      <c r="AO25" s="79"/>
-      <c r="AP25" s="80"/>
+      <c r="AL25" s="65"/>
+      <c r="AM25" s="66"/>
+      <c r="AN25" s="66"/>
+      <c r="AO25" s="66"/>
+      <c r="AP25" s="67"/>
       <c r="AQ25" s="13"/>
       <c r="AR25" s="14"/>
       <c r="AS25" s="14"/>
       <c r="AT25" s="8"/>
-      <c r="AU25" s="87"/>
-      <c r="AV25" s="88"/>
-      <c r="AW25" s="88"/>
-      <c r="AX25" s="88"/>
-      <c r="AY25" s="89"/>
+      <c r="AU25" s="59"/>
+      <c r="AV25" s="60"/>
+      <c r="AW25" s="60"/>
+      <c r="AX25" s="60"/>
+      <c r="AY25" s="61"/>
       <c r="AZ25" s="14"/>
       <c r="BA25" s="14"/>
       <c r="BB25" s="14"/>
       <c r="BC25" s="8"/>
-      <c r="BD25" s="93"/>
-      <c r="BE25" s="94"/>
-      <c r="BF25" s="94"/>
-      <c r="BG25" s="94"/>
-      <c r="BH25" s="95"/>
+      <c r="BD25" s="53"/>
+      <c r="BE25" s="54"/>
+      <c r="BF25" s="54"/>
+      <c r="BG25" s="54"/>
+      <c r="BH25" s="55"/>
     </row>
     <row r="26" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D26" s="4"/>
@@ -32813,70 +32811,70 @@
     <row r="30" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q30" s="12"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="56" t="s">
+      <c r="T30" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="U30" s="76"/>
-      <c r="V30" s="76"/>
-      <c r="W30" s="76"/>
-      <c r="X30" s="77"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="64"/>
       <c r="AB30" s="5"/>
-      <c r="AC30" s="84" t="s">
+      <c r="AC30" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AD30" s="85"/>
-      <c r="AE30" s="85"/>
-      <c r="AF30" s="85"/>
-      <c r="AG30" s="86"/>
+      <c r="AD30" s="57"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="57"/>
+      <c r="AG30" s="58"/>
       <c r="AK30" s="5"/>
-      <c r="AL30" s="90" t="s">
+      <c r="AL30" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="AM30" s="91"/>
-      <c r="AN30" s="91"/>
-      <c r="AO30" s="91"/>
-      <c r="AP30" s="92"/>
+      <c r="AM30" s="51"/>
+      <c r="AN30" s="51"/>
+      <c r="AO30" s="51"/>
+      <c r="AP30" s="52"/>
     </row>
     <row r="31" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J31" s="25"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
       <c r="P31" s="26"/>
       <c r="R31" s="14"/>
       <c r="S31" s="8"/>
-      <c r="T31" s="78"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="79"/>
-      <c r="W31" s="79"/>
-      <c r="X31" s="80"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="67"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
       <c r="AB31" s="8"/>
-      <c r="AC31" s="87"/>
-      <c r="AD31" s="88"/>
-      <c r="AE31" s="88"/>
-      <c r="AF31" s="88"/>
-      <c r="AG31" s="89"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="60"/>
+      <c r="AE31" s="60"/>
+      <c r="AF31" s="60"/>
+      <c r="AG31" s="61"/>
       <c r="AH31" s="14"/>
       <c r="AI31" s="14"/>
       <c r="AJ31" s="14"/>
       <c r="AK31" s="8"/>
-      <c r="AL31" s="93"/>
-      <c r="AM31" s="94"/>
-      <c r="AN31" s="94"/>
-      <c r="AO31" s="94"/>
-      <c r="AP31" s="95"/>
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="54"/>
+      <c r="AN31" s="54"/>
+      <c r="AO31" s="54"/>
+      <c r="AP31" s="55"/>
     </row>
     <row r="32" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
       <c r="AL32" s="1" t="s">
         <v>14</v>
       </c>
@@ -32886,39 +32884,39 @@
     <row r="35" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="36" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AB36" s="5"/>
-      <c r="AC36" s="56" t="s">
+      <c r="AC36" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="AD36" s="76"/>
-      <c r="AE36" s="76"/>
-      <c r="AF36" s="76"/>
-      <c r="AG36" s="77"/>
+      <c r="AD36" s="63"/>
+      <c r="AE36" s="63"/>
+      <c r="AF36" s="63"/>
+      <c r="AG36" s="64"/>
     </row>
     <row r="37" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Z37" s="14"/>
       <c r="AA37" s="14"/>
       <c r="AB37" s="8"/>
-      <c r="AC37" s="78"/>
-      <c r="AD37" s="79"/>
-      <c r="AE37" s="79"/>
-      <c r="AF37" s="79"/>
-      <c r="AG37" s="80"/>
+      <c r="AC37" s="65"/>
+      <c r="AD37" s="66"/>
+      <c r="AE37" s="66"/>
+      <c r="AF37" s="66"/>
+      <c r="AG37" s="67"/>
     </row>
     <row r="38" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J38" s="27"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="83"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
       <c r="P38" s="33"/>
     </row>
     <row r="39" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="83"/>
-      <c r="O39" s="83"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
     </row>
     <row r="40" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="41" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -32932,11 +32930,11 @@
     <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="BD24:BH25"/>
-    <mergeCell ref="AL30:AP31"/>
-    <mergeCell ref="AU24:AY25"/>
-    <mergeCell ref="T18:X19"/>
-    <mergeCell ref="AC18:AG19"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="K6:O7"/>
+    <mergeCell ref="T6:X7"/>
+    <mergeCell ref="T9:X10"/>
+    <mergeCell ref="A1:T4"/>
     <mergeCell ref="AC9:AG10"/>
     <mergeCell ref="K31:O32"/>
     <mergeCell ref="AC24:AG25"/>
@@ -32947,11 +32945,11 @@
     <mergeCell ref="T12:X13"/>
     <mergeCell ref="AC12:AG13"/>
     <mergeCell ref="AC36:AG37"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="K6:O7"/>
-    <mergeCell ref="T6:X7"/>
-    <mergeCell ref="T9:X10"/>
-    <mergeCell ref="A1:T4"/>
+    <mergeCell ref="BD24:BH25"/>
+    <mergeCell ref="AL30:AP31"/>
+    <mergeCell ref="AU24:AY25"/>
+    <mergeCell ref="T18:X19"/>
+    <mergeCell ref="AC18:AG19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.62992125984251968" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/マニュアル/会社評価システムマニュアル.xlsx
+++ b/マニュアル/会社評価システムマニュアル.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\company_evaluation\マニュアル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\マニュアル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02605492-E326-4E2E-BC1E-BC5387D34BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C336E8-DC74-4B72-BE87-B7BFBA924F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="996" firstSheet="12" activeTab="14" xr2:uid="{678DCB2D-7430-41AD-A8D2-C35F7A52921E}"/>
   </bookViews>
@@ -33,12 +33,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'1.画面遷移図'!$A$1:$BI$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">'2.10会社評価,2.11結果'!$A$1:$AT$86</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">'2.12評価出力,2.13確認'!$A$1:$AT$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'2.10会社評価,2.11結果'!$A$1:$AT$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">'2.12評価出力,2.13確認'!$A$1:$AT$84</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2.1ログイン,2.2メニュー'!$A$1:$AT$84</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2.3社員管理,③押下時'!$A$1:$AT$79</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'2.3社員管理④押下時'!$A$1:$AT$58</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'2.3社員管理⑤押下時'!$A$1:$AT$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'2.3社員管理⑤押下時'!$A$1:$AT$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'2.4評価項目管理,2.5会社評価管理'!$A$1:$AT$78</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'2.5会社評価管理,②押下時,③押下時'!$A$1:$AT$97</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'2.5会社評価管理④押下時,2.6自己評価管理'!$A$1:$AT$94</definedName>
@@ -661,13 +661,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>更新日2023/9/14</t>
-    <rPh sb="0" eb="3">
-      <t>コウシンビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>v</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -690,6 +683,13 @@
     </rPh>
     <rPh sb="10" eb="13">
       <t>オウカジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日2023/9/20</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1284,11 +1284,74 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1306,9 +1369,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1366,66 +1426,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2350,7 +2350,7 @@
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2362,97 +2362,79 @@
             <a:t>※</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>注意事項</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>②のボタンを押下した場合、会社評価コードの入力欄に入力されているコードではなく、自動採番されたコードが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>に登録されます</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・②のボタンを押下した場合、会社評価コードの入力欄に入力されているコードではなく、自動採番されたコードが</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>DB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>に登録されます</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>登録時のエラー一覧</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>登録時のエラー一覧</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2464,7 +2446,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2476,7 +2458,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2488,7 +2470,7 @@
             <a:t>評価項目</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2500,7 +2482,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2511,7 +2493,7 @@
             </a:rPr>
             <a:t>が入力されていない場合</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -2524,7 +2506,7 @@
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2536,7 +2518,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2548,7 +2530,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2560,7 +2542,7 @@
             <a:t>評価項目</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2572,7 +2554,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2584,7 +2566,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2596,7 +2578,7 @@
             <a:t>200</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2607,7 +2589,7 @@
             </a:rPr>
             <a:t>字以上の場合</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -2620,7 +2602,7 @@
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2632,7 +2614,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2644,7 +2626,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2656,7 +2638,7 @@
             <a:t>説明</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2668,7 +2650,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2680,7 +2662,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2692,7 +2674,7 @@
             <a:t>200</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2703,14 +2685,14 @@
             </a:rPr>
             <a:t>字以上の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2722,7 +2704,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2734,7 +2716,7 @@
             <a:t>[pt],[Expt]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2745,14 +2727,14 @@
             </a:rPr>
             <a:t>が入力されていない場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2764,7 +2746,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2776,7 +2758,7 @@
             <a:t>[pt],[Expt]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2788,7 +2770,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2800,7 +2782,7 @@
             <a:t>32768</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2812,7 +2794,7 @@
             <a:t>以上もしくは</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2824,7 +2806,7 @@
             <a:t>-32769</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2835,14 +2817,14 @@
             </a:rPr>
             <a:t>以下の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2854,7 +2836,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2866,7 +2848,7 @@
             <a:t>[pt]</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2878,7 +2860,7 @@
             <a:t>と</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2890,7 +2872,7 @@
             <a:t>[Expt]</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2902,7 +2884,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2914,7 +2896,7 @@
             <a:t>0</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2925,7 +2907,7 @@
             </a:rPr>
             <a:t>の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -3527,7 +3509,7 @@
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3539,7 +3521,7 @@
             <a:t>※</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3551,7 +3533,7 @@
             <a:t>更新</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3562,14 +3544,14 @@
             </a:rPr>
             <a:t>時のエラー一覧</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3581,7 +3563,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3593,7 +3575,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3605,7 +3587,7 @@
             <a:t>評価項目</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3617,7 +3599,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3628,14 +3610,14 @@
             </a:rPr>
             <a:t>が入力されていない場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3647,7 +3629,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3659,7 +3641,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3671,7 +3653,7 @@
             <a:t>評価項目</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3683,7 +3665,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3695,7 +3677,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3707,7 +3689,7 @@
             <a:t>200</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3718,14 +3700,14 @@
             </a:rPr>
             <a:t>字以上の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3737,7 +3719,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3749,7 +3731,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3761,7 +3743,7 @@
             <a:t>説明</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3773,7 +3755,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3785,7 +3767,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3797,7 +3779,7 @@
             <a:t>200</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3808,14 +3790,14 @@
             </a:rPr>
             <a:t>字以上の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3827,7 +3809,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3839,7 +3821,7 @@
             <a:t>[pt],[Expt]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3850,14 +3832,14 @@
             </a:rPr>
             <a:t>が入力されていない場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3869,7 +3851,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3881,7 +3863,7 @@
             <a:t>[pt],[Expt]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3893,7 +3875,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3905,7 +3887,7 @@
             <a:t>32768</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3917,7 +3899,7 @@
             <a:t>以上もしくは</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3929,7 +3911,7 @@
             <a:t>-32769</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3940,14 +3922,14 @@
             </a:rPr>
             <a:t>以下の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3959,7 +3941,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3971,7 +3953,7 @@
             <a:t>[pt]</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3983,7 +3965,7 @@
             <a:t>と</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3995,7 +3977,7 @@
             <a:t>[Expt]</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -4007,7 +3989,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -4019,7 +4001,7 @@
             <a:t>0</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -4030,7 +4012,7 @@
             </a:rPr>
             <a:t>の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -4441,16 +4423,16 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>画面選択</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>メニュー</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
@@ -4512,41 +4494,7 @@
               </a:solidFill>
               <a:effectLst/>
             </a:rPr>
-            <a:t>注意事項</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>・給与テーブルの背景色がグレーの箇所は愛知県の最低賃金を下回っている場合のものです</a:t>
+            <a:t>給与テーブルの背景色がグレーの箇所は愛知県の最低賃金を下回っている場合のものです</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:solidFill>
@@ -5062,14 +5010,14 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
           </a:br>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
             <a:t>※</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>注意事項</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>②の入力値には小数点を含む値を入れないでください</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -5090,10 +5038,18 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>・②の入力値には小数点を含む値を入れないでください</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>②の入力欄には桁数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>桁以上の値を入れないでください</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -5114,42 +5070,10 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>・②の入力欄には桁数</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>7</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>桁以上の値を入れないでください</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>・②の入力欄には負の数の値を入れないでください</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>②の入力欄には負の数の値を入れないでください</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5642,16 +5566,16 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>画面選択</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>メニュー</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
@@ -6591,7 +6515,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6603,59 +6527,19 @@
             <a:t>※</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>注意事項</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・④のボタン押下時、入力した内容が</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>④のボタン押下時、入力した内容が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6667,7 +6551,7 @@
             <a:t>DB</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6678,7 +6562,7 @@
             </a:rPr>
             <a:t>に保存されます</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -7501,7 +7385,7 @@
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -7513,37 +7397,19 @@
             <a:t>※</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>注意事項</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・④のボタン押下時、入力した内容が</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>④のボタン押下時、入力した内容が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -7555,7 +7421,7 @@
             <a:t>DB</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -7567,7 +7433,7 @@
             <a:t>に</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -7578,7 +7444,7 @@
             </a:rPr>
             <a:t>保存されます</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -8562,7 +8428,7 @@
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -8574,37 +8440,7 @@
             <a:t>※</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>注意事項</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -8616,7 +8452,7 @@
             <a:t>③</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -8628,7 +8464,7 @@
             <a:t>のボタン押下時、入力した内容が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -8640,7 +8476,7 @@
             <a:t>DB</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -8652,7 +8488,7 @@
             <a:t>に</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -8663,7 +8499,7 @@
             </a:rPr>
             <a:t>保存されます</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -9060,13 +8896,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
+      <xdr:rowOff>222249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9081,8 +8917,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="222250" y="6889750"/>
-          <a:ext cx="12255500" cy="2111375"/>
+          <a:off x="222250" y="18591892"/>
+          <a:ext cx="12071804" cy="3029857"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9349,6 +9185,18 @@
             </a:rPr>
             <a:t>ファイルにして出力</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>(CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ファイルはダウンロードに保存 されます</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>)</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="2000">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -9450,6 +9298,74 @@
             <a:t>画面に遷移</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
+            <a:t>※4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>月から</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>月末の間に人事評価した場合、その年の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>日の自己評価結果の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
+            <a:t>[pt]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>は反映されません</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -10628,7 +10544,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>画面選択</a:t>
+            <a:t>メニュー</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
@@ -10765,6 +10681,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>出力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>(CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ファイルはダウンロードに保存 されます</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:solidFill>
@@ -11430,8 +11358,8 @@
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>206375</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11446,8 +11374,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="276225" y="6921500"/>
-          <a:ext cx="12084050" cy="1619250"/>
+          <a:off x="277091" y="17957511"/>
+          <a:ext cx="12121284" cy="2114262"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -11773,6 +11701,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>ファイルにして出力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>(CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ファイルはダウンロードに保存 されます</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:solidFill>
@@ -14128,91 +14068,91 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
             <a:t>※1[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
             <a:t>会社評価</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
             <a:t>から</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
             <a:t>自己評価</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
             <a:t>に遷移する場合、</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
             <a:t>自己評価</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
             <a:t>から</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
             <a:t>結果</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
             <a:t>にしか遷移できなくなる</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
             <a:t>結果</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
             <a:t>まで遷移した場合このフラグは消える</a:t>
           </a:r>
         </a:p>
@@ -14858,7 +14798,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>画面選択</a:t>
+            <a:t>メニュー</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
@@ -14876,14 +14816,6 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>注意事項</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -14950,14 +14882,6 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　　　　</a:t>
-          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
@@ -17976,7 +17900,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>画面選択</a:t>
+            <a:t>メニュー</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
@@ -18718,7 +18642,7 @@
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -18730,7 +18654,7 @@
             <a:t>※</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -18741,14 +18665,14 @@
             </a:rPr>
             <a:t>登録時のエラー一覧</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -18760,7 +18684,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -18772,7 +18696,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -18784,7 +18708,7 @@
             <a:t>社員番号</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -18796,7 +18720,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -18807,14 +18731,14 @@
             </a:rPr>
             <a:t>を入力していない場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -18826,7 +18750,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -18838,7 +18762,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -18850,7 +18774,7 @@
             <a:t>氏名</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -18862,7 +18786,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -18873,14 +18797,14 @@
             </a:rPr>
             <a:t>を入力していない場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -18892,7 +18816,7 @@
             <a:t>・すでに登録されている</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -18904,7 +18828,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -18916,7 +18840,7 @@
             <a:t>社員番号</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -18928,7 +18852,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -18939,14 +18863,14 @@
             </a:rPr>
             <a:t>を登録する場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -18958,7 +18882,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -18970,7 +18894,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -18982,7 +18906,7 @@
             <a:t>社員番号</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -18994,7 +18918,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19006,7 +18930,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19018,7 +18942,7 @@
             <a:t>6</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19029,14 +18953,14 @@
             </a:rPr>
             <a:t>桁以外の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19048,7 +18972,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19060,7 +18984,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19072,7 +18996,7 @@
             <a:t>氏名</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19084,7 +19008,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19096,7 +19020,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19108,7 +19032,7 @@
             <a:t>20</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19119,14 +19043,14 @@
             </a:rPr>
             <a:t>文字以上の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19138,7 +19062,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19150,7 +19074,7 @@
             <a:t>[IT</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19162,7 +19086,7 @@
             <a:t>経験</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19174,7 +19098,7 @@
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19186,7 +19110,7 @@
             <a:t>年</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19198,7 +19122,7 @@
             <a:t>)]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19210,7 +19134,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19222,7 +19146,7 @@
             <a:t>128</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19234,7 +19158,7 @@
             <a:t>以上もしくは</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19246,7 +19170,7 @@
             <a:t>-129</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19257,14 +19181,14 @@
             </a:rPr>
             <a:t>以下の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19276,7 +19200,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19288,7 +19212,7 @@
             <a:t>[IT</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19300,7 +19224,7 @@
             <a:t>以外経験</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19312,7 +19236,7 @@
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19324,7 +19248,7 @@
             <a:t>年</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19336,7 +19260,7 @@
             <a:t>)]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19348,7 +19272,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19360,7 +19284,7 @@
             <a:t>128</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19372,7 +19296,7 @@
             <a:t>以上もしくは</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19384,7 +19308,7 @@
             <a:t>-129</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19395,14 +19319,14 @@
             </a:rPr>
             <a:t>以下の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19414,7 +19338,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19426,7 +19350,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19438,7 +19362,7 @@
             <a:t>入社日</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19450,7 +19374,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19462,7 +19386,7 @@
             <a:t>と</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19474,7 +19398,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19486,7 +19410,7 @@
             <a:t>生年月日</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19498,7 +19422,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19509,14 +19433,14 @@
             </a:rPr>
             <a:t>が入力されていない場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19528,7 +19452,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19540,7 +19464,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19552,7 +19476,7 @@
             <a:t>入社日</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19564,7 +19488,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19576,7 +19500,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19588,7 +19512,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19600,7 +19524,7 @@
             <a:t>生年月日</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19612,7 +19536,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19623,14 +19547,14 @@
             </a:rPr>
             <a:t>よりも前の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19642,7 +19566,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19654,7 +19578,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19666,7 +19590,7 @@
             <a:t>入社日</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19678,7 +19602,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19690,7 +19614,7 @@
             <a:t>と</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19702,7 +19626,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19714,7 +19638,7 @@
             <a:t>生年月日</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19726,7 +19650,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19738,7 +19662,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19750,7 +19674,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19762,7 +19686,7 @@
             <a:t>システム日付</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19774,7 +19698,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -19785,7 +19709,7 @@
             </a:rPr>
             <a:t>よりも後の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -20314,8 +20238,8 @@
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>231320</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20330,8 +20254,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="312962" y="6928756"/>
-          <a:ext cx="12491358" cy="5953806"/>
+          <a:off x="299355" y="7126060"/>
+          <a:ext cx="11906251" cy="6726011"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -20501,7 +20425,7 @@
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20513,7 +20437,7 @@
             <a:t>※</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20525,7 +20449,7 @@
             <a:t>更新</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20536,14 +20460,14 @@
             </a:rPr>
             <a:t>時のエラー一覧</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20555,7 +20479,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20567,7 +20491,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20579,7 +20503,7 @@
             <a:t>氏名</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20591,7 +20515,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20602,14 +20526,14 @@
             </a:rPr>
             <a:t>を入力していない場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20621,7 +20545,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20633,7 +20557,7 @@
             <a:t>登録されていない</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20645,7 +20569,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20657,7 +20581,7 @@
             <a:t>社員番号</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20669,7 +20593,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20680,14 +20604,14 @@
             </a:rPr>
             <a:t>を更新する場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20699,7 +20623,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20711,7 +20635,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20723,7 +20647,7 @@
             <a:t>氏名</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20735,7 +20659,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20747,7 +20671,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20759,7 +20683,7 @@
             <a:t>20</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20770,14 +20694,14 @@
             </a:rPr>
             <a:t>文字以上の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20789,7 +20713,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20801,7 +20725,7 @@
             <a:t>[IT</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20813,7 +20737,7 @@
             <a:t>経験</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20825,7 +20749,7 @@
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20837,7 +20761,7 @@
             <a:t>年</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20849,7 +20773,7 @@
             <a:t>)]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20861,7 +20785,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20873,7 +20797,7 @@
             <a:t>128</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20885,7 +20809,7 @@
             <a:t>以上もしくは</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20897,7 +20821,7 @@
             <a:t>-129</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20908,14 +20832,14 @@
             </a:rPr>
             <a:t>以下の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20927,7 +20851,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20939,7 +20863,7 @@
             <a:t>[IT</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20951,7 +20875,7 @@
             <a:t>以外経験</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20963,7 +20887,7 @@
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20975,7 +20899,7 @@
             <a:t>年</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20987,7 +20911,7 @@
             <a:t>)]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -20999,7 +20923,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21011,7 +20935,7 @@
             <a:t>128</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21023,7 +20947,7 @@
             <a:t>以上もしくは</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21035,7 +20959,7 @@
             <a:t>-129</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21046,14 +20970,14 @@
             </a:rPr>
             <a:t>以下の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21065,7 +20989,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21077,7 +21001,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21089,7 +21013,7 @@
             <a:t>入社日</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21101,7 +21025,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21113,7 +21037,7 @@
             <a:t>と</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21125,7 +21049,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21137,7 +21061,7 @@
             <a:t>生年月日</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21149,7 +21073,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21160,14 +21084,14 @@
             </a:rPr>
             <a:t>が入力されていない場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21179,7 +21103,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21191,7 +21115,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21203,7 +21127,7 @@
             <a:t>入社日</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21215,7 +21139,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21227,7 +21151,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21239,7 +21163,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21251,7 +21175,7 @@
             <a:t>生年月日</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21263,7 +21187,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21274,14 +21198,14 @@
             </a:rPr>
             <a:t>よりも前の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21293,7 +21217,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21305,7 +21229,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21317,7 +21241,7 @@
             <a:t>入社日</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21329,7 +21253,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21341,7 +21265,7 @@
             <a:t>と</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21353,7 +21277,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21365,7 +21289,7 @@
             <a:t>生年月日</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21377,7 +21301,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21389,7 +21313,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21401,7 +21325,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21413,7 +21337,7 @@
             <a:t>システム日付</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21425,7 +21349,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21436,7 +21360,7 @@
             </a:rPr>
             <a:t>よりも後の場合</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -21449,7 +21373,7 @@
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21461,7 +21385,7 @@
             <a:t>※[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21473,7 +21397,7 @@
             <a:t>社員番号</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21485,7 +21409,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -21496,7 +21420,75 @@
             </a:rPr>
             <a:t>は更新できません</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>月から</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>月末の間に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>社員</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>の更新をした場合、その年の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>日の自己評価結果の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
+            <a:t>[pt]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>は反映されません</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -22380,7 +22372,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>画面選択</a:t>
+            <a:t>メニュー</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
@@ -24425,79 +24417,133 @@
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:effectLst/>
             </a:rPr>
             <a:t>※</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>注意事項</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>②のボタンを押下した場合、会社評価コードの入力欄に入力されているコードではなく、自動採番されたコードが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>に登録されます</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>・②のボタンを押下した場合、会社評価コードの入力欄に入力されているコードではなく、自動採番されたコードが</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>DB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>に登録されます</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>登録時のエラー一覧</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>登録時のエラー一覧</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内容</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を入力していない場合</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24509,7 +24555,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24521,7 +24567,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24533,7 +24579,7 @@
             <a:t>内容</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24545,73 +24591,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>を入力していない場合</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>内容</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24623,7 +24603,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24635,7 +24615,7 @@
             <a:t>200</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24646,7 +24626,7 @@
             </a:rPr>
             <a:t>字以上の場合</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -24675,7 +24655,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24687,7 +24667,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24699,7 +24679,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24711,7 +24691,7 @@
             <a:t>備考</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24723,7 +24703,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24735,7 +24715,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24747,7 +24727,7 @@
             <a:t>200</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24758,14 +24738,14 @@
             </a:rPr>
             <a:t>字以上の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24777,7 +24757,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24789,7 +24769,7 @@
             <a:t>[pt],[Expt]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24800,7 +24780,7 @@
             </a:rPr>
             <a:t>が入力されていない場合</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -24829,7 +24809,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24841,7 +24821,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24853,7 +24833,7 @@
             <a:t>[pt],[Expt]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24865,7 +24845,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24877,7 +24857,7 @@
             <a:t>32768</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24889,7 +24869,7 @@
             <a:t>以上もしくは</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24901,7 +24881,7 @@
             <a:t>-32769</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24912,7 +24892,7 @@
             </a:rPr>
             <a:t>以下の場合</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="2000">
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="2000" b="1">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -24941,7 +24921,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24953,7 +24933,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24965,7 +24945,7 @@
             <a:t>[pt]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24977,7 +24957,7 @@
             <a:t>と</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -24989,7 +24969,7 @@
             <a:t>[Expt]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25001,7 +24981,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25013,7 +24993,7 @@
             <a:t>0</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25024,14 +25004,14 @@
             </a:rPr>
             <a:t>の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25043,7 +25023,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25055,7 +25035,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25067,7 +25047,7 @@
             <a:t>技官区分</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25079,7 +25059,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25091,7 +25071,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25103,7 +25083,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25115,7 +25095,7 @@
             <a:t>会社貢献系</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25127,7 +25107,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25139,7 +25119,7 @@
             <a:t>で</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25151,7 +25131,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25163,7 +25143,7 @@
             <a:t>業資区分</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25175,7 +25155,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25187,7 +25167,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25199,7 +25179,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25211,7 +25191,7 @@
             <a:t>会社貢献系</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25223,7 +25203,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25234,14 +25214,14 @@
             </a:rPr>
             <a:t>でない場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25253,7 +25233,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25265,7 +25245,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25277,7 +25257,7 @@
             <a:t>業資</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25289,7 +25269,7 @@
             <a:t>区分</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25301,7 +25281,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25313,7 +25293,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25325,7 +25305,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25337,7 +25317,7 @@
             <a:t>会社貢献系</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25349,7 +25329,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25361,7 +25341,7 @@
             <a:t>で</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25373,7 +25353,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25385,7 +25365,7 @@
             <a:t>技官</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25397,7 +25377,7 @@
             <a:t>区分</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25409,7 +25389,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25421,7 +25401,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25433,7 +25413,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25445,7 +25425,7 @@
             <a:t>会社貢献系</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25457,7 +25437,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -25468,7 +25448,7 @@
             </a:rPr>
             <a:t>でない場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -26007,7 +25987,7 @@
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26019,7 +25999,7 @@
             <a:t>※</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26031,7 +26011,7 @@
             <a:t>更新</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26042,14 +26022,14 @@
             </a:rPr>
             <a:t>時のエラー一覧</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26061,7 +26041,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26073,7 +26053,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26085,7 +26065,7 @@
             <a:t>内容</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26097,7 +26077,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26108,14 +26088,14 @@
             </a:rPr>
             <a:t>を入力していない場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26127,7 +26107,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26139,7 +26119,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26151,7 +26131,7 @@
             <a:t>内容</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26163,7 +26143,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26175,7 +26155,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26187,7 +26167,7 @@
             <a:t>200</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26198,14 +26178,14 @@
             </a:rPr>
             <a:t>字以上の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26217,7 +26197,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26229,7 +26209,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26241,7 +26221,7 @@
             <a:t>備考</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26253,7 +26233,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26265,7 +26245,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26277,7 +26257,7 @@
             <a:t>200</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26288,14 +26268,14 @@
             </a:rPr>
             <a:t>字以上の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26307,7 +26287,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26319,7 +26299,7 @@
             <a:t>[pt],[Expt]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26330,14 +26310,14 @@
             </a:rPr>
             <a:t>が入力されていない場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26349,7 +26329,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26361,7 +26341,7 @@
             <a:t>[pt],[Expt]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26373,7 +26353,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26385,7 +26365,7 @@
             <a:t>32768</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26397,7 +26377,7 @@
             <a:t>以上もしくは</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26409,7 +26389,7 @@
             <a:t>-32769</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26420,14 +26400,14 @@
             </a:rPr>
             <a:t>以下の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26439,7 +26419,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26451,7 +26431,7 @@
             <a:t>[pt]</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26463,7 +26443,7 @@
             <a:t>と</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26475,7 +26455,7 @@
             <a:t>[Expt]</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26487,7 +26467,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26499,7 +26479,7 @@
             <a:t>0</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26510,14 +26490,14 @@
             </a:rPr>
             <a:t>の場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26529,7 +26509,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26541,7 +26521,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26553,7 +26533,7 @@
             <a:t>技官区分</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26565,7 +26545,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26577,7 +26557,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26589,7 +26569,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26601,7 +26581,7 @@
             <a:t>会社貢献系</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26613,7 +26593,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26625,7 +26605,7 @@
             <a:t>で</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26637,7 +26617,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26649,7 +26629,7 @@
             <a:t>業資区分</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26661,7 +26641,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26673,7 +26653,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26685,7 +26665,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26697,7 +26677,7 @@
             <a:t>会社貢献系</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26709,7 +26689,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26720,14 +26700,14 @@
             </a:rPr>
             <a:t>でない場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26739,7 +26719,7 @@
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26751,7 +26731,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26763,7 +26743,7 @@
             <a:t>業資区分</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26775,7 +26755,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26787,7 +26767,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26799,7 +26779,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26811,7 +26791,7 @@
             <a:t>会社貢献系</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26823,7 +26803,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26835,7 +26815,7 @@
             <a:t>で</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26847,7 +26827,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26859,7 +26839,7 @@
             <a:t>技官区分</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26871,7 +26851,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26883,7 +26863,7 @@
             <a:t>が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26895,7 +26875,7 @@
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26907,7 +26887,7 @@
             <a:t>会社貢献系</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26919,7 +26899,7 @@
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -26930,7 +26910,7 @@
             </a:rPr>
             <a:t>でない場合</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -28460,8 +28440,8 @@
   </sheetPr>
   <dimension ref="B2:U87"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="35" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="35" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -28553,12 +28533,12 @@
     </row>
     <row r="19" spans="6:21" x14ac:dyDescent="0.4">
       <c r="U19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="12:14" ht="30" x14ac:dyDescent="0.4">
       <c r="L56" s="46" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M56" s="46"/>
       <c r="N56" s="46"/>
@@ -28589,8 +28569,8 @@
   </sheetPr>
   <dimension ref="A1:AS58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A27" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="AX43" sqref="AX43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -28952,7 +28932,7 @@
   </sheetPr>
   <dimension ref="A1:AS41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A39" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W95" sqref="W95"/>
     </sheetView>
   </sheetViews>
@@ -29337,7 +29317,7 @@
   </sheetPr>
   <dimension ref="A1:AS55"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A18" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="AY88" sqref="AY88"/>
     </sheetView>
   </sheetViews>
@@ -29697,7 +29677,7 @@
   </sheetPr>
   <dimension ref="A1:AS48"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="25" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="25" workbookViewId="0">
       <selection activeCell="AY35" sqref="AY35"/>
     </sheetView>
   </sheetViews>
@@ -30035,8 +30015,8 @@
   </sheetPr>
   <dimension ref="A1:AS48"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="AX67" sqref="AX67"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A69" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="Z93" sqref="Z93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -30396,7 +30376,7 @@
   <dimension ref="A1:AS51"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:AS50"/>
+      <selection activeCell="AW87" sqref="AW87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -30740,7 +30720,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.62992125984251968" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -30755,8 +30735,8 @@
   </sheetPr>
   <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A46" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AG74" sqref="AG74"/>
+    <sheetView showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A25" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="BE41" sqref="BE41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -31100,7 +31080,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.62992125984251968" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -31115,7 +31095,7 @@
   </sheetPr>
   <dimension ref="A1:AS74"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:AS3"/>
     </sheetView>
   </sheetViews>
@@ -31290,7 +31270,7 @@
     <row r="39" spans="1:45" s="42" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="97" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="97"/>
       <c r="C40" s="97"/>
@@ -31490,14 +31470,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="37"/>
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
@@ -31509,12 +31489,12 @@
       <c r="P2" s="37"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="37"/>
       <c r="I3" s="37"/>
       <c r="J3" s="37"/>
@@ -31526,12 +31506,12 @@
       <c r="P3" s="37"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
@@ -31544,12 +31524,12 @@
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="36"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
@@ -31578,623 +31558,615 @@
       <c r="P6" s="35"/>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="49" t="s">
-        <v>61</v>
+      <c r="B14" s="48" t="s">
+        <v>60</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
     </row>
     <row r="17" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
     </row>
     <row r="18" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
     </row>
     <row r="19" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
     </row>
     <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
     </row>
     <row r="21" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
     </row>
     <row r="22" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
     </row>
     <row r="23" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
     </row>
     <row r="24" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
     </row>
     <row r="25" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
     </row>
     <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
     </row>
     <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
     </row>
     <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B36:Q37"/>
-    <mergeCell ref="B38:Q39"/>
-    <mergeCell ref="B24:Q25"/>
-    <mergeCell ref="B26:Q27"/>
-    <mergeCell ref="B28:Q29"/>
-    <mergeCell ref="B30:Q31"/>
-    <mergeCell ref="B32:Q33"/>
-    <mergeCell ref="B34:Q35"/>
     <mergeCell ref="B2:G5"/>
     <mergeCell ref="B18:Q19"/>
     <mergeCell ref="B20:Q21"/>
@@ -32204,6 +32176,14 @@
     <mergeCell ref="B12:Q13"/>
     <mergeCell ref="B14:Q15"/>
     <mergeCell ref="B16:Q17"/>
+    <mergeCell ref="B36:Q37"/>
+    <mergeCell ref="B38:Q39"/>
+    <mergeCell ref="B24:Q25"/>
+    <mergeCell ref="B26:Q27"/>
+    <mergeCell ref="B28:Q29"/>
+    <mergeCell ref="B30:Q31"/>
+    <mergeCell ref="B32:Q33"/>
+    <mergeCell ref="B34:Q35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.62992125984251968" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -32221,8 +32201,8 @@
   </sheetPr>
   <dimension ref="A1:BH49"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection sqref="A1:T4"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="AR12" sqref="AR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -32235,150 +32215,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="69"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="89"/>
     </row>
     <row r="2" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="72"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="92"/>
     </row>
     <row r="3" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="72"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="92"/>
     </row>
     <row r="4" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="75"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="95"/>
     </row>
     <row r="6" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="56" t="s">
-        <v>59</v>
+      <c r="K6" s="62" t="s">
+        <v>58</v>
       </c>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="58"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="78"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="50" t="s">
+      <c r="T6" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="52"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="73"/>
     </row>
     <row r="7" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="61"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="81"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="7"/>
       <c r="S7" s="8"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="55"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="76"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
@@ -32428,22 +32408,22 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="11"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="56" t="s">
+      <c r="T9" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="63"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="83"/>
       <c r="Y9" s="2"/>
       <c r="AB9" s="5"/>
-      <c r="AC9" s="56" t="s">
+      <c r="AC9" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="77"/>
+      <c r="AD9" s="63"/>
+      <c r="AE9" s="63"/>
+      <c r="AF9" s="63"/>
+      <c r="AG9" s="64"/>
     </row>
     <row r="10" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D10" s="10"/>
@@ -32462,20 +32442,20 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="13"/>
       <c r="S10" s="8"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="66"/>
+      <c r="T10" s="84"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="86"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="13"/>
       <c r="AB10" s="8"/>
-      <c r="AC10" s="78"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="80"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="66"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="67"/>
     </row>
     <row r="11" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D11" s="10"/>
@@ -32508,39 +32488,39 @@
       <c r="O12" s="10"/>
       <c r="Q12" s="12"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="50" t="s">
+      <c r="T12" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="52"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="73"/>
       <c r="AA12" s="29"/>
       <c r="AB12" s="5"/>
-      <c r="AC12" s="56" t="s">
+      <c r="AC12" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="77"/>
+      <c r="AD12" s="63"/>
+      <c r="AE12" s="63"/>
+      <c r="AF12" s="63"/>
+      <c r="AG12" s="64"/>
     </row>
     <row r="13" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q13" s="12"/>
       <c r="R13" s="13"/>
       <c r="S13" s="8"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="55"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="76"/>
       <c r="AA13" s="14"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="78"/>
-      <c r="AD13" s="79"/>
-      <c r="AE13" s="79"/>
-      <c r="AF13" s="79"/>
-      <c r="AG13" s="80"/>
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="67"/>
     </row>
     <row r="14" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E14" s="15"/>
@@ -32623,22 +32603,22 @@
       <c r="K18" s="15"/>
       <c r="Q18" s="12"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="56" t="s">
+      <c r="T18" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="U18" s="76"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="76"/>
-      <c r="X18" s="77"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="64"/>
       <c r="Y18" s="2"/>
       <c r="AB18" s="5"/>
-      <c r="AC18" s="56" t="s">
+      <c r="AC18" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="AD18" s="76"/>
-      <c r="AE18" s="76"/>
-      <c r="AF18" s="76"/>
-      <c r="AG18" s="77"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="64"/>
       <c r="AM18" s="12"/>
     </row>
     <row r="19" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -32646,20 +32626,20 @@
       <c r="Q19" s="12"/>
       <c r="R19" s="14"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="80"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="67"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="78"/>
-      <c r="AD19" s="79"/>
-      <c r="AE19" s="79"/>
-      <c r="AF19" s="79"/>
-      <c r="AG19" s="80"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="67"/>
       <c r="AM19" s="12"/>
     </row>
     <row r="20" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -32696,38 +32676,38 @@
       <c r="S24" s="17"/>
       <c r="U24" s="12"/>
       <c r="AB24" s="5"/>
-      <c r="AC24" s="56" t="s">
+      <c r="AC24" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="AD24" s="76"/>
-      <c r="AE24" s="76"/>
-      <c r="AF24" s="76"/>
-      <c r="AG24" s="77"/>
+      <c r="AD24" s="63"/>
+      <c r="AE24" s="63"/>
+      <c r="AF24" s="63"/>
+      <c r="AG24" s="64"/>
       <c r="AH24" s="2"/>
       <c r="AK24" s="5"/>
-      <c r="AL24" s="56" t="s">
+      <c r="AL24" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="AM24" s="76"/>
-      <c r="AN24" s="76"/>
-      <c r="AO24" s="76"/>
-      <c r="AP24" s="77"/>
+      <c r="AM24" s="63"/>
+      <c r="AN24" s="63"/>
+      <c r="AO24" s="63"/>
+      <c r="AP24" s="64"/>
       <c r="AT24" s="5"/>
-      <c r="AU24" s="84" t="s">
+      <c r="AU24" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV24" s="85"/>
-      <c r="AW24" s="85"/>
-      <c r="AX24" s="85"/>
-      <c r="AY24" s="86"/>
+      <c r="AV24" s="57"/>
+      <c r="AW24" s="57"/>
+      <c r="AX24" s="57"/>
+      <c r="AY24" s="58"/>
       <c r="BC24" s="5"/>
-      <c r="BD24" s="90" t="s">
+      <c r="BD24" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="BE24" s="91"/>
-      <c r="BF24" s="91"/>
-      <c r="BG24" s="91"/>
-      <c r="BH24" s="92"/>
+      <c r="BE24" s="51"/>
+      <c r="BF24" s="51"/>
+      <c r="BG24" s="51"/>
+      <c r="BH24" s="52"/>
     </row>
     <row r="25" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D25" s="4"/>
@@ -32742,38 +32722,38 @@
       <c r="Z25" s="14"/>
       <c r="AA25" s="14"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="78"/>
-      <c r="AD25" s="79"/>
-      <c r="AE25" s="79"/>
-      <c r="AF25" s="79"/>
-      <c r="AG25" s="80"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="66"/>
+      <c r="AE25" s="66"/>
+      <c r="AF25" s="66"/>
+      <c r="AG25" s="67"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="14"/>
       <c r="AJ25" s="14"/>
       <c r="AK25" s="8"/>
-      <c r="AL25" s="78"/>
-      <c r="AM25" s="79"/>
-      <c r="AN25" s="79"/>
-      <c r="AO25" s="79"/>
-      <c r="AP25" s="80"/>
+      <c r="AL25" s="65"/>
+      <c r="AM25" s="66"/>
+      <c r="AN25" s="66"/>
+      <c r="AO25" s="66"/>
+      <c r="AP25" s="67"/>
       <c r="AQ25" s="13"/>
       <c r="AR25" s="14"/>
       <c r="AS25" s="14"/>
       <c r="AT25" s="8"/>
-      <c r="AU25" s="87"/>
-      <c r="AV25" s="88"/>
-      <c r="AW25" s="88"/>
-      <c r="AX25" s="88"/>
-      <c r="AY25" s="89"/>
+      <c r="AU25" s="59"/>
+      <c r="AV25" s="60"/>
+      <c r="AW25" s="60"/>
+      <c r="AX25" s="60"/>
+      <c r="AY25" s="61"/>
       <c r="AZ25" s="14"/>
       <c r="BA25" s="14"/>
       <c r="BB25" s="14"/>
       <c r="BC25" s="8"/>
-      <c r="BD25" s="93"/>
-      <c r="BE25" s="94"/>
-      <c r="BF25" s="94"/>
-      <c r="BG25" s="94"/>
-      <c r="BH25" s="95"/>
+      <c r="BD25" s="53"/>
+      <c r="BE25" s="54"/>
+      <c r="BF25" s="54"/>
+      <c r="BG25" s="54"/>
+      <c r="BH25" s="55"/>
     </row>
     <row r="26" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D26" s="4"/>
@@ -32813,70 +32793,70 @@
     <row r="30" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q30" s="12"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="56" t="s">
+      <c r="T30" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="U30" s="76"/>
-      <c r="V30" s="76"/>
-      <c r="W30" s="76"/>
-      <c r="X30" s="77"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="64"/>
       <c r="AB30" s="5"/>
-      <c r="AC30" s="84" t="s">
+      <c r="AC30" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AD30" s="85"/>
-      <c r="AE30" s="85"/>
-      <c r="AF30" s="85"/>
-      <c r="AG30" s="86"/>
+      <c r="AD30" s="57"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="57"/>
+      <c r="AG30" s="58"/>
       <c r="AK30" s="5"/>
-      <c r="AL30" s="90" t="s">
+      <c r="AL30" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="AM30" s="91"/>
-      <c r="AN30" s="91"/>
-      <c r="AO30" s="91"/>
-      <c r="AP30" s="92"/>
+      <c r="AM30" s="51"/>
+      <c r="AN30" s="51"/>
+      <c r="AO30" s="51"/>
+      <c r="AP30" s="52"/>
     </row>
     <row r="31" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J31" s="25"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
       <c r="P31" s="26"/>
       <c r="R31" s="14"/>
       <c r="S31" s="8"/>
-      <c r="T31" s="78"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="79"/>
-      <c r="W31" s="79"/>
-      <c r="X31" s="80"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="67"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
       <c r="AB31" s="8"/>
-      <c r="AC31" s="87"/>
-      <c r="AD31" s="88"/>
-      <c r="AE31" s="88"/>
-      <c r="AF31" s="88"/>
-      <c r="AG31" s="89"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="60"/>
+      <c r="AE31" s="60"/>
+      <c r="AF31" s="60"/>
+      <c r="AG31" s="61"/>
       <c r="AH31" s="14"/>
       <c r="AI31" s="14"/>
       <c r="AJ31" s="14"/>
       <c r="AK31" s="8"/>
-      <c r="AL31" s="93"/>
-      <c r="AM31" s="94"/>
-      <c r="AN31" s="94"/>
-      <c r="AO31" s="94"/>
-      <c r="AP31" s="95"/>
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="54"/>
+      <c r="AN31" s="54"/>
+      <c r="AO31" s="54"/>
+      <c r="AP31" s="55"/>
     </row>
     <row r="32" spans="4:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
       <c r="AL32" s="1" t="s">
         <v>14</v>
       </c>
@@ -32886,39 +32866,39 @@
     <row r="35" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="36" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AB36" s="5"/>
-      <c r="AC36" s="56" t="s">
+      <c r="AC36" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="AD36" s="76"/>
-      <c r="AE36" s="76"/>
-      <c r="AF36" s="76"/>
-      <c r="AG36" s="77"/>
+      <c r="AD36" s="63"/>
+      <c r="AE36" s="63"/>
+      <c r="AF36" s="63"/>
+      <c r="AG36" s="64"/>
     </row>
     <row r="37" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Z37" s="14"/>
       <c r="AA37" s="14"/>
       <c r="AB37" s="8"/>
-      <c r="AC37" s="78"/>
-      <c r="AD37" s="79"/>
-      <c r="AE37" s="79"/>
-      <c r="AF37" s="79"/>
-      <c r="AG37" s="80"/>
+      <c r="AC37" s="65"/>
+      <c r="AD37" s="66"/>
+      <c r="AE37" s="66"/>
+      <c r="AF37" s="66"/>
+      <c r="AG37" s="67"/>
     </row>
     <row r="38" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J38" s="27"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="83"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
       <c r="P38" s="33"/>
     </row>
     <row r="39" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="83"/>
-      <c r="O39" s="83"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
     </row>
     <row r="40" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="41" spans="10:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -32932,11 +32912,11 @@
     <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="BD24:BH25"/>
-    <mergeCell ref="AL30:AP31"/>
-    <mergeCell ref="AU24:AY25"/>
-    <mergeCell ref="T18:X19"/>
-    <mergeCell ref="AC18:AG19"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="K6:O7"/>
+    <mergeCell ref="T6:X7"/>
+    <mergeCell ref="T9:X10"/>
+    <mergeCell ref="A1:T4"/>
     <mergeCell ref="AC9:AG10"/>
     <mergeCell ref="K31:O32"/>
     <mergeCell ref="AC24:AG25"/>
@@ -32947,11 +32927,11 @@
     <mergeCell ref="T12:X13"/>
     <mergeCell ref="AC12:AG13"/>
     <mergeCell ref="AC36:AG37"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="K6:O7"/>
-    <mergeCell ref="T6:X7"/>
-    <mergeCell ref="T9:X10"/>
-    <mergeCell ref="A1:T4"/>
+    <mergeCell ref="BD24:BH25"/>
+    <mergeCell ref="AL30:AP31"/>
+    <mergeCell ref="AU24:AY25"/>
+    <mergeCell ref="T18:X19"/>
+    <mergeCell ref="AC18:AG19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.62992125984251968" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -32970,8 +32950,8 @@
   </sheetPr>
   <dimension ref="A1:AT47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="AX55" sqref="AX55"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="BA36" sqref="BA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -33220,7 +33200,7 @@
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A44" s="96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" s="96"/>
       <c r="C44" s="96"/>
@@ -33411,7 +33391,7 @@
   </sheetPr>
   <dimension ref="A1:AT49"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A58" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A61" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="AX10" sqref="AX10:BE14"/>
     </sheetView>
   </sheetViews>
@@ -33777,8 +33757,8 @@
   </sheetPr>
   <dimension ref="A1:AT3"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="BB37" sqref="BB36:BB37"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="BA37" sqref="BA37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -33950,8 +33930,8 @@
   </sheetPr>
   <dimension ref="A1:AT4"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="AY10" sqref="AY10"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A43" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="AT60" sqref="AT60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -34171,7 +34151,7 @@
   </sheetPr>
   <dimension ref="A1:AV42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="AX75" sqref="AX75"/>
     </sheetView>
   </sheetViews>
@@ -34499,7 +34479,7 @@
   </sheetPr>
   <dimension ref="A1:AS41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A27" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A63" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="W98" sqref="W98"/>
     </sheetView>
   </sheetViews>
